--- a/Data/item_wise_stock_data.xlsx
+++ b/Data/item_wise_stock_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Code\gmp_report_with_functions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939B524-C4A9-4E6E-85A4-C27D6DBE0A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B5DF68-8A64-4B7B-82D1-116ED519F6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3352B96B-E579-4E40-9A59-0BA9CF7B6379}"/>
+    <workbookView xWindow="30" yWindow="1290" windowWidth="19170" windowHeight="7110" xr2:uid="{3352B96B-E579-4E40-9A59-0BA9CF7B6379}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>BOG</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Q:23(S: -1M 2D)</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>FRD</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
     <t>Brand1</t>
   </si>
   <si>
@@ -69,15 +63,6 @@
     <t>Brand3</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>30 ml</t>
   </si>
   <si>
@@ -174,14 +159,29 @@
     <t>Q:650(S: 1M 12D)</t>
   </si>
   <si>
-    <t>E</t>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Item number 11</t>
+  </si>
+  <si>
+    <t>Item number 12</t>
+  </si>
+  <si>
+    <t>Item number 13</t>
+  </si>
+  <si>
+    <t>Item number 14</t>
+  </si>
+  <si>
+    <t>Item number 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,16 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -263,10 +273,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,13 +604,12 @@
   <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
@@ -605,562 +617,562 @@
     <col min="37" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="7" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -1169,104 +1181,105 @@
         <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>